--- a/food_groups/dairy.xlsx
+++ b/food_groups/dairy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3D06B62-CE5E-448E-8DE9-00515222B0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C712C8-D570-468A-8215-0C1F28689F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C74634E0-A80F-4253-9666-F82BE8388B8D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>property</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>soy dairy</t>
+  </si>
+  <si>
+    <t>food super group</t>
+  </si>
+  <si>
+    <t>dairy</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFC8362-3684-4C6B-A2BC-D5EE91D348D2}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,6 +473,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/food_groups/dairy.xlsx
+++ b/food_groups/dairy.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\NLP-P2\food_groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C712C8-D570-468A-8215-0C1F28689F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E9344D-1D69-4BDE-A955-8146FDAE5EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C74634E0-A80F-4253-9666-F82BE8388B8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{C74634E0-A80F-4253-9666-F82BE8388B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="dairy" sheetId="1" r:id="rId1"/>
+    <sheet name="milk" sheetId="2" r:id="rId2"/>
+    <sheet name="cheese" sheetId="3" r:id="rId3"/>
+    <sheet name="yogurt" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>property</t>
   </si>
@@ -416,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFC8362-3684-4C6B-A2BC-D5EE91D348D2}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,4 +487,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921E3B36-B679-4224-83CA-0F3F4FBA0753}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A179C58-DBC8-4C3B-9E45-06F70F4BB0A4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A240CA-69CE-418E-BDB1-B9E6FD2297A4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>